--- a/target/test-classes/testData/testData.xlsx
+++ b/target/test-classes/testData/testData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>PASSWORD</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>recep.merchant@agileswiftcargo.com</t>
-  </si>
-  <si>
-    <t>recep.deliveryman@agileswiftcargo.com</t>
   </si>
 </sst>
 </file>
@@ -383,7 +380,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -417,18 +414,12 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
